--- a/final_data_pipeline/output/325180longform_elec_options_nowhp.xlsx
+++ b/final_data_pipeline/output/325180longform_elec_options_nowhp.xlsx
@@ -1150,7 +1150,7 @@
         <v>97</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="J10">
         <v>8000</v>
@@ -1165,10 +1165,10 @@
         <v>43040.19259695899</v>
       </c>
       <c r="N10">
-        <v>0.9405645161290322</v>
+        <v>0.9516859959956178</v>
       </c>
       <c r="O10">
-        <v>0.9635833333333333</v>
+        <v>0.9753614246104579</v>
       </c>
       <c r="P10">
         <v>5.380024074619874</v>
@@ -1203,7 +1203,7 @@
         <v>98</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="J11">
         <v>8000</v>
@@ -1650,7 +1650,7 @@
         <v>97</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="J20">
         <v>8000</v>
@@ -1665,10 +1665,10 @@
         <v>35888.00851422216</v>
       </c>
       <c r="N20">
-        <v>0.9405645161290322</v>
+        <v>0.9495669873270495</v>
       </c>
       <c r="O20">
-        <v>0.9635833333333333</v>
+        <v>0.9731165936130245</v>
       </c>
       <c r="P20">
         <v>4.48600106427777</v>
@@ -1703,7 +1703,7 @@
         <v>98</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="J21">
         <v>8000</v>
@@ -1850,7 +1850,7 @@
         <v>97</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="J24">
         <v>8000</v>
@@ -1865,10 +1865,10 @@
         <v>271528.9521856017</v>
       </c>
       <c r="N24">
-        <v>0.9405645161290322</v>
+        <v>0.9511946531936644</v>
       </c>
       <c r="O24">
-        <v>0.9635833333333333</v>
+        <v>0.9748408768576692</v>
       </c>
       <c r="P24">
         <v>33.94111902320021</v>
@@ -1903,7 +1903,7 @@
         <v>98</v>
       </c>
       <c r="I25">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="J25">
         <v>8000</v>
@@ -1950,7 +1950,7 @@
         <v>97</v>
       </c>
       <c r="I26">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="J26">
         <v>8000</v>
@@ -1965,10 +1965,10 @@
         <v>115580.0317946794</v>
       </c>
       <c r="N26">
-        <v>0.9405645161290322</v>
+        <v>0.9583158770332573</v>
       </c>
       <c r="O26">
-        <v>0.9635833333333333</v>
+        <v>0.9823871532785465</v>
       </c>
       <c r="P26">
         <v>14.44750397433493</v>
@@ -2003,7 +2003,7 @@
         <v>98</v>
       </c>
       <c r="I27">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="J27">
         <v>8000</v>
@@ -2350,7 +2350,7 @@
         <v>97</v>
       </c>
       <c r="I34">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="J34">
         <v>8000</v>
@@ -2365,10 +2365,10 @@
         <v>85232.79659721626</v>
       </c>
       <c r="N34">
-        <v>0.9405645161290322</v>
+        <v>0.9712571710566898</v>
       </c>
       <c r="O34">
-        <v>0.9635833333333333</v>
+        <v>0.9961106502456767</v>
       </c>
       <c r="P34">
         <v>10.65409957465203</v>
@@ -2403,7 +2403,7 @@
         <v>98</v>
       </c>
       <c r="I35">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="J35">
         <v>8000</v>
@@ -2650,7 +2650,7 @@
         <v>97</v>
       </c>
       <c r="I40">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="J40">
         <v>8000</v>
@@ -2665,10 +2665,10 @@
         <v>102483.8971167525</v>
       </c>
       <c r="N40">
-        <v>0.9405645161290322</v>
+        <v>0.9741566255742371</v>
       </c>
       <c r="O40">
-        <v>0.9635833333333333</v>
+        <v>0.9991870829399434</v>
       </c>
       <c r="P40">
         <v>12.81048713959406</v>
@@ -2703,7 +2703,7 @@
         <v>98</v>
       </c>
       <c r="I41">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="J41">
         <v>8000</v>
@@ -3050,7 +3050,7 @@
         <v>97</v>
       </c>
       <c r="I48">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="J48">
         <v>8000</v>
@@ -3065,10 +3065,10 @@
         <v>24327.06538088986</v>
       </c>
       <c r="N48">
-        <v>0.9405645161290322</v>
+        <v>0.9760891465058971</v>
       </c>
       <c r="O48">
-        <v>0.9635833333333333</v>
+        <v>1.001237913506406</v>
       </c>
       <c r="P48">
         <v>3.040883172611232</v>
@@ -3103,7 +3103,7 @@
         <v>98</v>
       </c>
       <c r="I49">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="J49">
         <v>8000</v>
@@ -3150,7 +3150,7 @@
         <v>97</v>
       </c>
       <c r="I50">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="J50">
         <v>8000</v>
@@ -3165,10 +3165,10 @@
         <v>29414.88774109125</v>
       </c>
       <c r="N50">
-        <v>0.9405645161290322</v>
+        <v>0.970793063583815</v>
       </c>
       <c r="O50">
-        <v>0.9635833333333333</v>
+        <v>0.995618273140397</v>
       </c>
       <c r="P50">
         <v>3.676860967636406</v>
@@ -3203,7 +3203,7 @@
         <v>98</v>
       </c>
       <c r="I51">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="J51">
         <v>8000</v>
@@ -3250,7 +3250,7 @@
         <v>97</v>
       </c>
       <c r="I52">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="J52">
         <v>8000</v>
@@ -3265,10 +3265,10 @@
         <v>63857.5285003954</v>
       </c>
       <c r="N52">
-        <v>0.9405645161290322</v>
+        <v>0.9760891465058971</v>
       </c>
       <c r="O52">
-        <v>0.9635833333333333</v>
+        <v>1.001237913506406</v>
       </c>
       <c r="P52">
         <v>7.982191062549425</v>
@@ -3303,7 +3303,7 @@
         <v>98</v>
       </c>
       <c r="I53">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="J53">
         <v>8000</v>
@@ -3450,7 +3450,7 @@
         <v>98</v>
       </c>
       <c r="I56">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="J56">
         <v>8000</v>
@@ -3897,7 +3897,7 @@
         <v>97</v>
       </c>
       <c r="I65">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="J65">
         <v>8000</v>
@@ -3912,10 +3912,10 @@
         <v>61543.33164717858</v>
       </c>
       <c r="N65">
-        <v>0.9405645161290322</v>
+        <v>0.9516859959956178</v>
       </c>
       <c r="O65">
-        <v>0.9635833333333333</v>
+        <v>0.9753614246104579</v>
       </c>
       <c r="P65">
         <v>7.692916455897323</v>
@@ -3950,7 +3950,7 @@
         <v>98</v>
       </c>
       <c r="I66">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="J66">
         <v>8000</v>
@@ -4097,7 +4097,7 @@
         <v>97</v>
       </c>
       <c r="I69">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="J69">
         <v>8000</v>
@@ -4112,10 +4112,10 @@
         <v>138506.4124765754</v>
       </c>
       <c r="N69">
-        <v>0.9405645161290322</v>
+        <v>0.9712571710566898</v>
       </c>
       <c r="O69">
-        <v>0.9635833333333333</v>
+        <v>0.9961106502456767</v>
       </c>
       <c r="P69">
         <v>17.31330155957192</v>
@@ -4150,7 +4150,7 @@
         <v>98</v>
       </c>
       <c r="I70">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="J70">
         <v>8000</v>
@@ -4197,7 +4197,7 @@
         <v>97</v>
       </c>
       <c r="I71">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="J71">
         <v>8000</v>
@@ -4212,10 +4212,10 @@
         <v>4608.65326029847</v>
       </c>
       <c r="N71">
-        <v>0.9405645161290322</v>
+        <v>0.9521050214763401</v>
       </c>
       <c r="O71">
-        <v>0.9635833333333333</v>
+        <v>0.9758053708974481</v>
       </c>
       <c r="P71">
         <v>0.5760816575373088</v>
@@ -4250,7 +4250,7 @@
         <v>98</v>
       </c>
       <c r="I72">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="J72">
         <v>8000</v>
@@ -4297,7 +4297,7 @@
         <v>97</v>
       </c>
       <c r="I73">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="J73">
         <v>8000</v>
@@ -4312,10 +4312,10 @@
         <v>254359.3016213042</v>
       </c>
       <c r="N73">
-        <v>0.9405645161290322</v>
+        <v>0.9696645907267841</v>
       </c>
       <c r="O73">
-        <v>0.9635833333333333</v>
+        <v>0.9944211305850406</v>
       </c>
       <c r="P73">
         <v>31.79491270266302</v>
@@ -4350,7 +4350,7 @@
         <v>98</v>
       </c>
       <c r="I74">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="J74">
         <v>8000</v>
@@ -4397,7 +4397,7 @@
         <v>97</v>
       </c>
       <c r="I75">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="J75">
         <v>8000</v>
@@ -4412,10 +4412,10 @@
         <v>279333.6001559282</v>
       </c>
       <c r="N75">
-        <v>0.9405645161290322</v>
+        <v>0.9497676359185355</v>
       </c>
       <c r="O75">
-        <v>0.9635833333333333</v>
+        <v>0.9733291418446532</v>
       </c>
       <c r="P75">
         <v>34.91670001949102</v>
@@ -4450,7 +4450,7 @@
         <v>98</v>
       </c>
       <c r="I76">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="J76">
         <v>8000</v>
@@ -4544,7 +4544,7 @@
         <v>97</v>
       </c>
       <c r="I78">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="J78">
         <v>8000</v>
@@ -4559,10 +4559,10 @@
         <v>33942.23259680699</v>
       </c>
       <c r="N78">
-        <v>0.9405645161290322</v>
+        <v>0.9516859959956178</v>
       </c>
       <c r="O78">
-        <v>0.9635833333333333</v>
+        <v>0.9753614246104579</v>
       </c>
       <c r="P78">
         <v>4.242779074600874</v>
@@ -4597,7 +4597,7 @@
         <v>98</v>
       </c>
       <c r="I79">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="J79">
         <v>8000</v>
@@ -4644,7 +4644,7 @@
         <v>97</v>
       </c>
       <c r="I80">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="J80">
         <v>8000</v>
@@ -4659,10 +4659,10 @@
         <v>83154.29555197115</v>
       </c>
       <c r="N80">
-        <v>0.9405645161290322</v>
+        <v>0.9163022129108289</v>
       </c>
       <c r="O80">
-        <v>0.9635833333333333</v>
+        <v>0.9379207786940652</v>
       </c>
       <c r="P80">
         <v>10.39428694399639</v>
@@ -4697,7 +4697,7 @@
         <v>98</v>
       </c>
       <c r="I81">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="J81">
         <v>8000</v>
@@ -5044,7 +5044,7 @@
         <v>97</v>
       </c>
       <c r="I88">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="J88">
         <v>8000</v>
@@ -5059,10 +5059,10 @@
         <v>2915.399335321758</v>
       </c>
       <c r="N88">
-        <v>0.9405645161290322</v>
+        <v>0.9516859959956178</v>
       </c>
       <c r="O88">
-        <v>0.9635833333333333</v>
+        <v>0.9753614246104579</v>
       </c>
       <c r="P88">
         <v>0.3644249169152198</v>
@@ -5097,7 +5097,7 @@
         <v>98</v>
       </c>
       <c r="I89">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="J89">
         <v>8000</v>
@@ -5144,7 +5144,7 @@
         <v>97</v>
       </c>
       <c r="I90">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="J90">
         <v>8000</v>
@@ -5159,10 +5159,10 @@
         <v>84591.37819971226</v>
       </c>
       <c r="N90">
-        <v>0.9405645161290322</v>
+        <v>0.9270655773901523</v>
       </c>
       <c r="O90">
-        <v>0.9635833333333333</v>
+        <v>0.9492998859749143</v>
       </c>
       <c r="P90">
         <v>10.57392227496403</v>
@@ -5197,7 +5197,7 @@
         <v>98</v>
       </c>
       <c r="I91">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="J91">
         <v>8000</v>
@@ -5244,7 +5244,7 @@
         <v>97</v>
       </c>
       <c r="I92">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="J92">
         <v>8000</v>
@@ -5259,10 +5259,10 @@
         <v>121046.5544900213</v>
       </c>
       <c r="N92">
-        <v>0.9405645161290322</v>
+        <v>0.9166889846297158</v>
       </c>
       <c r="O92">
-        <v>0.9635833333333333</v>
+        <v>0.9383295263284442</v>
       </c>
       <c r="P92">
         <v>15.13081931125267</v>
@@ -5297,7 +5297,7 @@
         <v>98</v>
       </c>
       <c r="I93">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="J93">
         <v>8000</v>
@@ -5744,7 +5744,7 @@
         <v>97</v>
       </c>
       <c r="I102">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="J102">
         <v>8000</v>
@@ -5759,10 +5759,10 @@
         <v>64794.45751674948</v>
       </c>
       <c r="N102">
-        <v>0.9405645161290322</v>
+        <v>0.9521050214763401</v>
       </c>
       <c r="O102">
-        <v>0.9635833333333333</v>
+        <v>0.9758053708974481</v>
       </c>
       <c r="P102">
         <v>8.099307189593684</v>
@@ -5797,7 +5797,7 @@
         <v>98</v>
       </c>
       <c r="I103">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="J103">
         <v>8000</v>
@@ -5844,7 +5844,7 @@
         <v>97</v>
       </c>
       <c r="I104">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="J104">
         <v>8000</v>
@@ -5859,10 +5859,10 @@
         <v>96305.66348079426</v>
       </c>
       <c r="N104">
-        <v>0.9405645161290322</v>
+        <v>0.9516859959956178</v>
       </c>
       <c r="O104">
-        <v>0.9635833333333333</v>
+        <v>0.9753614246104579</v>
       </c>
       <c r="P104">
         <v>12.03820793509928</v>
@@ -5897,7 +5897,7 @@
         <v>98</v>
       </c>
       <c r="I105">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="J105">
         <v>8000</v>
@@ -6144,7 +6144,7 @@
         <v>97</v>
       </c>
       <c r="I110">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="J110">
         <v>8000</v>
@@ -6159,10 +6159,10 @@
         <v>54500.96489236086</v>
       </c>
       <c r="N110">
-        <v>0.9405645161290322</v>
+        <v>0.9163022129108289</v>
       </c>
       <c r="O110">
-        <v>0.9635833333333333</v>
+        <v>0.9379207786940652</v>
       </c>
       <c r="P110">
         <v>6.812620611545108</v>
@@ -6197,7 +6197,7 @@
         <v>98</v>
       </c>
       <c r="I111">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="J111">
         <v>8000</v>
@@ -6244,7 +6244,7 @@
         <v>97</v>
       </c>
       <c r="I112">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="J112">
         <v>8000</v>
@@ -6259,10 +6259,10 @@
         <v>57082.41941120433</v>
       </c>
       <c r="N112">
-        <v>0.9405645161290322</v>
+        <v>0.9758169225763468</v>
       </c>
       <c r="O112">
-        <v>0.9635833333333333</v>
+        <v>1.000949006909155</v>
       </c>
       <c r="P112">
         <v>7.135302426400542</v>
@@ -6297,7 +6297,7 @@
         <v>98</v>
       </c>
       <c r="I113">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="J113">
         <v>8000</v>
